--- a/BoM/Positional/kicad-automation-test-bom.xlsx
+++ b/BoM/Positional/kicad-automation-test-bom.xlsx
@@ -236,7 +236,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-02-10_23-25-35</t>
+    <t>2023-02-10_23-45-28</t>
   </si>
   <si>
     <t>KiCad Version:</t>

--- a/BoM/Positional/kicad-automation-test-bom.xlsx
+++ b/BoM/Positional/kicad-automation-test-bom.xlsx
@@ -236,7 +236,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-02-10_23-45-28</t>
+    <t>2023-02-10_23-49-14</t>
   </si>
   <si>
     <t>KiCad Version:</t>
